--- a/transaksi-usaha (new).xlsx
+++ b/transaksi-usaha (new).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Tugas\Kewirausahaan\transaksi-usaha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81B9498-FDBF-4F2A-88E3-70D377C3F6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60D6E91-B92F-43F2-BCE6-F1BBEF54F2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="588" windowWidth="12192" windowHeight="10236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transaksi" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-13809]hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-13809]hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -349,25 +349,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,6 +380,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -712,15 +718,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,13 +745,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,7 +759,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,9 +993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1047,31 +1053,31 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="45" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
       <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1121,11 +1127,11 @@
       <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="S2" s="40" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="S2" s="43" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="9">
@@ -1179,11 +1185,11 @@
       </c>
       <c r="L3" s="7">
         <f>COUNTIF(H2:H201,TRUE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" s="7">
         <f>SUMIF($H$2:$H$201,TRUE,$E$2:$E$201)</f>
-        <v>88000</v>
+        <v>40000</v>
       </c>
       <c r="N3" s="7">
         <f>wallet!G4</f>
@@ -1204,7 +1210,7 @@
       <c r="R3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="41"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="9">
         <v>2</v>
       </c>
@@ -1249,7 +1255,7 @@
       <c r="I4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="41"/>
+      <c r="S4" s="44"/>
       <c r="T4" s="9">
         <v>3</v>
       </c>
@@ -1285,16 +1291,16 @@
       <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="42"/>
+      <c r="S5" s="45"/>
       <c r="T5" s="9">
         <v>4</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="13"/>
-      <c r="X5" s="43" t="s">
+      <c r="X5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Y5" s="44"/>
+      <c r="Y5" s="42"/>
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1324,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="16"/>
-      <c r="S6" s="40" t="s">
+      <c r="S6" s="43" t="s">
         <v>36</v>
       </c>
       <c r="T6" s="9">
@@ -1367,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="16"/>
-      <c r="S7" s="41"/>
+      <c r="S7" s="44"/>
       <c r="T7" s="9">
         <v>2</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="16"/>
-      <c r="S8" s="41"/>
+      <c r="S8" s="44"/>
       <c r="T8" s="9">
         <v>3</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="S9" s="42"/>
+      <c r="S9" s="45"/>
       <c r="T9" s="9">
         <v>4</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="43" t="s">
         <v>44</v>
       </c>
       <c r="T10" s="9">
@@ -1518,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="16"/>
-      <c r="S11" s="41"/>
+      <c r="S11" s="44"/>
       <c r="T11" s="9">
         <v>2</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="S12" s="41"/>
+      <c r="S12" s="44"/>
       <c r="T12" s="9">
         <v>3</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="S13" s="42"/>
+      <c r="S13" s="45"/>
       <c r="T13" s="9">
         <v>4</v>
       </c>
@@ -1622,7 +1628,7 @@
       <c r="I14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="40" t="s">
+      <c r="S14" s="43" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="9">
@@ -1660,7 +1666,7 @@
       <c r="I15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S15" s="41"/>
+      <c r="S15" s="44"/>
       <c r="T15" s="9">
         <v>2</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="S16" s="41"/>
+      <c r="S16" s="44"/>
       <c r="T16" s="9">
         <v>3</v>
       </c>
@@ -1730,7 +1736,7 @@
       <c r="I17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="42"/>
+      <c r="S17" s="45"/>
       <c r="T17" s="9">
         <v>4</v>
       </c>
@@ -2506,7 +2512,7 @@
       <c r="A44" s="5">
         <v>45371</v>
       </c>
-      <c r="B44" s="58">
+      <c r="B44" s="40">
         <v>0.5</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -2536,7 +2542,7 @@
       <c r="A45" s="5">
         <v>45372</v>
       </c>
-      <c r="B45" s="58">
+      <c r="B45" s="40">
         <v>0.5</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -2566,7 +2572,7 @@
       <c r="A46" s="5">
         <v>45373</v>
       </c>
-      <c r="B46" s="58">
+      <c r="B46" s="40">
         <v>0.5</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -2596,7 +2602,7 @@
       <c r="A47" s="5">
         <v>45371</v>
       </c>
-      <c r="B47" s="58">
+      <c r="B47" s="40">
         <v>0.5</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -2626,7 +2632,7 @@
       <c r="A48" s="5">
         <v>45371</v>
       </c>
-      <c r="B48" s="58">
+      <c r="B48" s="40">
         <v>0.58333333333333337</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -2646,7 +2652,7 @@
         <v>46</v>
       </c>
       <c r="H48" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>77</v>
@@ -2656,7 +2662,7 @@
       <c r="A49" s="5">
         <v>45371</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="40">
         <v>0.58333333333333337</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -5609,18 +5615,18 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="S1:U1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="S2:S5"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="S6:S9"/>
     <mergeCell ref="S10:S13"/>
     <mergeCell ref="S14:S17"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="M3">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5652,7 +5658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5661,69 +5669,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="51" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>transaksi!M3</f>
-        <v>88000</v>
+        <v>40000</v>
       </c>
       <c r="B3" s="28">
-        <f>75000</f>
-        <v>75000</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+        <f>80500</f>
+        <v>80500</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52">
+      <c r="A4" s="53">
         <f>B3+A3</f>
-        <v>163000</v>
-      </c>
-      <c r="B4" s="46"/>
+        <v>120500</v>
+      </c>
+      <c r="B4" s="50"/>
       <c r="C4" s="29">
         <v>0</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29">
-        <v>5500</v>
+        <v>48000</v>
       </c>
       <c r="F4" s="29">
         <v>229590</v>
@@ -5734,7 +5742,7 @@
       </c>
       <c r="H4" s="31">
         <f>G4-$A$3</f>
-        <v>310090</v>
+        <v>358090</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5765,7 +5773,7 @@
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f>B3-14000</f>
-        <v>61000</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6791,14 +6799,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -7897,10 +7905,10 @@
       <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="8" t="s">
         <v>97</v>
       </c>
@@ -8043,10 +8051,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>

--- a/transaksi-usaha (new).xlsx
+++ b/transaksi-usaha (new).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Tugas\Kewirausahaan\transaksi-usaha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60D6E91-B92F-43F2-BCE6-F1BBEF54F2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC75A710-CF18-44E5-93A3-37808E0AD3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="588" windowWidth="12192" windowHeight="10236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transaksi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
   <si>
     <t>Tanggal</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Biaya admin disertakan di depo</t>
+  </si>
+  <si>
+    <t>pln token 50k</t>
   </si>
 </sst>
 </file>
@@ -719,6 +722,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,8 +741,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,16 +748,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -993,9 +996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1053,31 +1056,31 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
       <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1127,11 +1130,11 @@
       <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="S2" s="43" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="S2" s="49" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="9">
@@ -1177,11 +1180,11 @@
       </c>
       <c r="J3" s="7">
         <f>SUM($E$2:E201)</f>
-        <v>940500</v>
+        <v>992500</v>
       </c>
       <c r="K3" s="12">
         <f>SUM($F$2:F201)</f>
-        <v>78090</v>
+        <v>79590</v>
       </c>
       <c r="L3" s="7">
         <f>COUNTIF(H2:H201,TRUE)</f>
@@ -1193,7 +1196,7 @@
       </c>
       <c r="N3" s="7">
         <f>wallet!G4</f>
-        <v>398090</v>
+        <v>399590</v>
       </c>
       <c r="O3" s="7">
         <f>deposit!G4</f>
@@ -1201,7 +1204,7 @@
       </c>
       <c r="P3" s="7">
         <f>SUM($D$2:$D$201)</f>
-        <v>862410</v>
+        <v>912910</v>
       </c>
       <c r="Q3" s="7" t="b">
         <f>((O3-P3)+J3) &lt;&gt; N3</f>
@@ -1210,7 +1213,7 @@
       <c r="R3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="44"/>
+      <c r="S3" s="46"/>
       <c r="T3" s="9">
         <v>2</v>
       </c>
@@ -1255,7 +1258,7 @@
       <c r="I4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="44"/>
+      <c r="S4" s="46"/>
       <c r="T4" s="9">
         <v>3</v>
       </c>
@@ -1291,16 +1294,16 @@
       <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="45"/>
+      <c r="S5" s="44"/>
       <c r="T5" s="9">
         <v>4</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="13"/>
-      <c r="X5" s="41" t="s">
+      <c r="X5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="Y5" s="42"/>
+      <c r="Y5" s="48"/>
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1330,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="16"/>
-      <c r="S6" s="43" t="s">
+      <c r="S6" s="49" t="s">
         <v>36</v>
       </c>
       <c r="T6" s="9">
@@ -1373,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="16"/>
-      <c r="S7" s="44"/>
+      <c r="S7" s="46"/>
       <c r="T7" s="9">
         <v>2</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="16"/>
-      <c r="S8" s="44"/>
+      <c r="S8" s="46"/>
       <c r="T8" s="9">
         <v>3</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="S9" s="45"/>
+      <c r="S9" s="44"/>
       <c r="T9" s="9">
         <v>4</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="S10" s="43" t="s">
+      <c r="S10" s="49" t="s">
         <v>44</v>
       </c>
       <c r="T10" s="9">
@@ -1524,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="16"/>
-      <c r="S11" s="44"/>
+      <c r="S11" s="46"/>
       <c r="T11" s="9">
         <v>2</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="S12" s="44"/>
+      <c r="S12" s="46"/>
       <c r="T12" s="9">
         <v>3</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="S13" s="45"/>
+      <c r="S13" s="44"/>
       <c r="T13" s="9">
         <v>4</v>
       </c>
@@ -1628,7 +1631,7 @@
       <c r="I14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="43" t="s">
+      <c r="S14" s="49" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="9">
@@ -1666,7 +1669,7 @@
       <c r="I15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S15" s="44"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="9">
         <v>2</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="S16" s="44"/>
+      <c r="S16" s="46"/>
       <c r="T16" s="9">
         <v>3</v>
       </c>
@@ -1736,7 +1739,7 @@
       <c r="I17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="45"/>
+      <c r="S17" s="44"/>
       <c r="T17" s="9">
         <v>4</v>
       </c>
@@ -2687,17 +2690,31 @@
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="A50" s="5">
+        <v>45374</v>
+      </c>
+      <c r="B50" s="6">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="7">
+        <v>50500</v>
+      </c>
+      <c r="E50" s="7">
+        <v>52000</v>
+      </c>
       <c r="F50" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+        <v>1500</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5615,11 +5632,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="S6:S9"/>
     <mergeCell ref="S10:S13"/>
@@ -5627,6 +5639,11 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="S2:S5"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="M3">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5658,8 +5675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5676,33 +5693,33 @@
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="51" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="43" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
@@ -5710,22 +5727,22 @@
         <v>40000</v>
       </c>
       <c r="B3" s="28">
-        <f>80500</f>
-        <v>80500</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+        <f>132500</f>
+        <v>132500</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53">
         <f>B3+A3</f>
-        <v>120500</v>
-      </c>
-      <c r="B4" s="50"/>
+        <v>172500</v>
+      </c>
+      <c r="B4" s="42"/>
       <c r="C4" s="29">
         <v>0</v>
       </c>
@@ -5734,15 +5751,15 @@
         <v>48000</v>
       </c>
       <c r="F4" s="29">
-        <v>229590</v>
+        <v>179090</v>
       </c>
       <c r="G4" s="30">
         <f>SUM($A$4:$F$4)</f>
-        <v>398090</v>
+        <v>399590</v>
       </c>
       <c r="H4" s="31">
         <f>G4-$A$3</f>
-        <v>358090</v>
+        <v>359590</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5773,7 +5790,7 @@
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f>B3-14000</f>
-        <v>66500</v>
+        <v>118500</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7908,7 +7925,7 @@
       <c r="F1" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="8" t="s">
         <v>97</v>
       </c>
@@ -8051,10 +8068,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -8070,7 +8087,7 @@
       </c>
       <c r="G8" s="39">
         <f>(transaksi!$K$3)*(H2/100)</f>
-        <v>65888.4375</v>
+        <v>67154.0625</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>99</v>
@@ -8090,7 +8107,7 @@
       </c>
       <c r="G9" s="39">
         <f>(transaksi!$K$3)*(H3/100)</f>
-        <v>12201.5625</v>
+        <v>12435.9375</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/transaksi-usaha (new).xlsx
+++ b/transaksi-usaha (new).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Tugas\Kewirausahaan\transaksi-usaha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC75A710-CF18-44E5-93A3-37808E0AD3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13435106-B7D0-4D31-BF2B-62EA2A0A6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transaksi" sheetId="1" r:id="rId1"/>
@@ -722,6 +722,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,25 +745,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,9 +996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
+      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1056,31 +1056,31 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
       <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1130,11 +1130,11 @@
       <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="S2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="S2" s="43" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="9">
@@ -1213,7 +1213,7 @@
       <c r="R3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="46"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="9">
         <v>2</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="I4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="46"/>
+      <c r="S4" s="44"/>
       <c r="T4" s="9">
         <v>3</v>
       </c>
@@ -1294,16 +1294,16 @@
       <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="44"/>
+      <c r="S5" s="45"/>
       <c r="T5" s="9">
         <v>4</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="13"/>
-      <c r="X5" s="47" t="s">
+      <c r="X5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Y5" s="48"/>
+      <c r="Y5" s="42"/>
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="16"/>
-      <c r="S6" s="49" t="s">
+      <c r="S6" s="43" t="s">
         <v>36</v>
       </c>
       <c r="T6" s="9">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="16"/>
-      <c r="S7" s="46"/>
+      <c r="S7" s="44"/>
       <c r="T7" s="9">
         <v>2</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="16"/>
-      <c r="S8" s="46"/>
+      <c r="S8" s="44"/>
       <c r="T8" s="9">
         <v>3</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="S9" s="44"/>
+      <c r="S9" s="45"/>
       <c r="T9" s="9">
         <v>4</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="S10" s="49" t="s">
+      <c r="S10" s="43" t="s">
         <v>44</v>
       </c>
       <c r="T10" s="9">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="16"/>
-      <c r="S11" s="46"/>
+      <c r="S11" s="44"/>
       <c r="T11" s="9">
         <v>2</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="S12" s="46"/>
+      <c r="S12" s="44"/>
       <c r="T12" s="9">
         <v>3</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="S13" s="44"/>
+      <c r="S13" s="45"/>
       <c r="T13" s="9">
         <v>4</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="I14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="S14" s="43" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="9">
@@ -1669,7 +1669,7 @@
       <c r="I15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S15" s="46"/>
+      <c r="S15" s="44"/>
       <c r="T15" s="9">
         <v>2</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="S16" s="46"/>
+      <c r="S16" s="44"/>
       <c r="T16" s="9">
         <v>3</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="I17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="44"/>
+      <c r="S17" s="45"/>
       <c r="T17" s="9">
         <v>4</v>
       </c>
@@ -5632,6 +5632,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="S6:S9"/>
     <mergeCell ref="S10:S13"/>
@@ -5639,11 +5644,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="S2:S5"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="M3">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5675,8 +5675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5693,33 +5693,33 @@
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="51" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
@@ -5730,19 +5730,19 @@
         <f>132500</f>
         <v>132500</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53">
         <f>B3+A3</f>
         <v>172500</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="29">
         <v>0</v>
       </c>
@@ -5788,10 +5788,7 @@
       <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <f>B3-14000</f>
-        <v>118500</v>
-      </c>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7925,7 +7922,7 @@
       <c r="F1" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="42"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="8" t="s">
         <v>97</v>
       </c>
@@ -8068,10 +8065,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>

--- a/transaksi-usaha (new).xlsx
+++ b/transaksi-usaha (new).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Tugas\Kewirausahaan\transaksi-usaha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13435106-B7D0-4D31-BF2B-62EA2A0A6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726689F1-5802-48E7-91C5-095583A8ADF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transaksi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
   <si>
     <t>Tanggal</t>
   </si>
@@ -327,10 +327,10 @@
     <t>Pembagian Hasil (Rp)</t>
   </si>
   <si>
-    <t>Biaya admin disertakan di depo</t>
-  </si>
-  <si>
     <t>pln token 50k</t>
+  </si>
+  <si>
+    <t>tri 3GB/3hr</t>
   </si>
 </sst>
 </file>
@@ -722,6 +722,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,8 +741,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,16 +748,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,9 +996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1056,31 +1056,31 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="49" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
       <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1130,11 +1130,11 @@
       <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="S2" s="43" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="S2" s="49" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="9">
@@ -1180,23 +1180,23 @@
       </c>
       <c r="J3" s="7">
         <f>SUM($E$2:E201)</f>
-        <v>992500</v>
+        <v>1010500</v>
       </c>
       <c r="K3" s="12">
         <f>SUM($F$2:F201)</f>
-        <v>79590</v>
+        <v>84840</v>
       </c>
       <c r="L3" s="7">
         <f>COUNTIF(H2:H201,TRUE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="7">
         <f>SUMIF($H$2:$H$201,TRUE,$E$2:$E$201)</f>
-        <v>40000</v>
+        <v>54000</v>
       </c>
       <c r="N3" s="7">
         <f>wallet!G4</f>
-        <v>399590</v>
+        <v>404840</v>
       </c>
       <c r="O3" s="7">
         <f>deposit!G4</f>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="P3" s="7">
         <f>SUM($D$2:$D$201)</f>
-        <v>912910</v>
+        <v>925660</v>
       </c>
       <c r="Q3" s="7" t="b">
         <f>((O3-P3)+J3) &lt;&gt; N3</f>
@@ -1213,7 +1213,7 @@
       <c r="R3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="44"/>
+      <c r="S3" s="46"/>
       <c r="T3" s="9">
         <v>2</v>
       </c>
@@ -1258,11 +1258,14 @@
       <c r="I4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="44"/>
+      <c r="S4" s="46"/>
       <c r="T4" s="9">
         <v>3</v>
       </c>
-      <c r="U4" s="10"/>
+      <c r="U4" s="10">
+        <f>SUM(F36:F51)</f>
+        <v>23070</v>
+      </c>
       <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1294,16 +1297,16 @@
       <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="45"/>
+      <c r="S5" s="44"/>
       <c r="T5" s="9">
         <v>4</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="13"/>
-      <c r="X5" s="41" t="s">
+      <c r="X5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="Y5" s="42"/>
+      <c r="Y5" s="48"/>
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="16"/>
-      <c r="S6" s="43" t="s">
+      <c r="S6" s="49" t="s">
         <v>36</v>
       </c>
       <c r="T6" s="9">
@@ -1376,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="16"/>
-      <c r="S7" s="44"/>
+      <c r="S7" s="46"/>
       <c r="T7" s="9">
         <v>2</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="16"/>
-      <c r="S8" s="44"/>
+      <c r="S8" s="46"/>
       <c r="T8" s="9">
         <v>3</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="S9" s="45"/>
+      <c r="S9" s="44"/>
       <c r="T9" s="9">
         <v>4</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="S10" s="43" t="s">
+      <c r="S10" s="49" t="s">
         <v>44</v>
       </c>
       <c r="T10" s="9">
@@ -1527,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="16"/>
-      <c r="S11" s="44"/>
+      <c r="S11" s="46"/>
       <c r="T11" s="9">
         <v>2</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="S12" s="44"/>
+      <c r="S12" s="46"/>
       <c r="T12" s="9">
         <v>3</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="S13" s="45"/>
+      <c r="S13" s="44"/>
       <c r="T13" s="9">
         <v>4</v>
       </c>
@@ -1631,7 +1634,7 @@
       <c r="I14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="43" t="s">
+      <c r="S14" s="49" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="9">
@@ -1669,7 +1672,7 @@
       <c r="I15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S15" s="44"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="9">
         <v>2</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="S16" s="44"/>
+      <c r="S16" s="46"/>
       <c r="T16" s="9">
         <v>3</v>
       </c>
@@ -1739,7 +1742,7 @@
       <c r="I17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="45"/>
+      <c r="S17" s="44"/>
       <c r="T17" s="9">
         <v>4</v>
       </c>
@@ -2280,7 +2283,7 @@
       </c>
       <c r="N35" s="18">
         <f>E31+E43+E44+E45+E46+E47</f>
-        <v>67000</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2525,11 +2528,11 @@
         <v>12200</v>
       </c>
       <c r="E44" s="7">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>46</v>
@@ -2539,6 +2542,10 @@
       </c>
       <c r="I44" s="7" t="s">
         <v>65</v>
+      </c>
+      <c r="N44">
+        <f>SUM(E3,E18,E27,E51)</f>
+        <v>54000</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2555,11 +2562,11 @@
         <v>12200</v>
       </c>
       <c r="E45" s="7">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="F45" s="7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>46</v>
@@ -2569,6 +2576,9 @@
       </c>
       <c r="I45" s="7" t="s">
         <v>65</v>
+      </c>
+      <c r="N45">
+        <v>20000</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2585,11 +2595,11 @@
         <v>12200</v>
       </c>
       <c r="E46" s="7">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="F46" s="7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>46</v>
@@ -2615,11 +2625,11 @@
         <v>6300</v>
       </c>
       <c r="E47" s="7">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="F47" s="7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>46</v>
@@ -2697,7 +2707,7 @@
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" s="7">
         <v>50500</v>
@@ -2718,18 +2728,34 @@
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="A51" s="5">
+        <v>45374</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="7">
+        <v>12750</v>
+      </c>
+      <c r="E51" s="7">
+        <v>14000</v>
+      </c>
       <c r="F51" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+        <v>1250</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
@@ -5632,11 +5658,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="S6:S9"/>
     <mergeCell ref="S10:S13"/>
@@ -5644,6 +5665,11 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="S2:S5"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="M3">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5676,7 +5702,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5693,56 +5719,56 @@
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="51" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="43" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>transaksi!M3</f>
-        <v>40000</v>
+        <v>54000</v>
       </c>
       <c r="B3" s="28">
-        <f>132500</f>
-        <v>132500</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+        <f>136500</f>
+        <v>136500</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53">
         <f>B3+A3</f>
-        <v>172500</v>
-      </c>
-      <c r="B4" s="50"/>
+        <v>190500</v>
+      </c>
+      <c r="B4" s="42"/>
       <c r="C4" s="29">
         <v>0</v>
       </c>
@@ -5751,15 +5777,15 @@
         <v>48000</v>
       </c>
       <c r="F4" s="29">
-        <v>179090</v>
+        <v>166340</v>
       </c>
       <c r="G4" s="30">
         <f>SUM($A$4:$F$4)</f>
-        <v>399590</v>
+        <v>404840</v>
       </c>
       <c r="H4" s="31">
         <f>G4-$A$3</f>
-        <v>359590</v>
+        <v>350840</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6804,7 +6830,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7885,7 +7913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7922,7 +7952,7 @@
       <c r="F1" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="8" t="s">
         <v>97</v>
       </c>
@@ -8065,10 +8095,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -8084,11 +8114,9 @@
       </c>
       <c r="G8" s="39">
         <f>(transaksi!$K$3)*(H2/100)</f>
-        <v>67154.0625</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>71583.75</v>
+      </c>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
@@ -8104,7 +8132,7 @@
       </c>
       <c r="G9" s="39">
         <f>(transaksi!$K$3)*(H3/100)</f>
-        <v>12435.9375</v>
+        <v>13256.25</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/transaksi-usaha (new).xlsx
+++ b/transaksi-usaha (new).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Tugas\Kewirausahaan\transaksi-usaha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726689F1-5802-48E7-91C5-095583A8ADF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1138C34C-E15F-48A7-9E4E-9BDBDDA6AD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="99">
   <si>
     <t>Tanggal</t>
   </si>
@@ -313,12 +313,6 @@
   </si>
   <si>
     <t>Depo</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
   <si>
     <t>%</t>
@@ -636,17 +630,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -658,11 +641,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -718,10 +716,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,25 +741,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,9 +755,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,31 +1065,31 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
       <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1130,11 +1139,11 @@
       <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="S2" s="49" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="S2" s="41" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="9">
@@ -1200,7 +1209,7 @@
       </c>
       <c r="O3" s="7">
         <f>deposit!G4</f>
-        <v>320000</v>
+        <v>324000</v>
       </c>
       <c r="P3" s="7">
         <f>SUM($D$2:$D$201)</f>
@@ -1208,12 +1217,12 @@
       </c>
       <c r="Q3" s="7" t="b">
         <f>((O3-P3)+J3) &lt;&gt; N3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="46"/>
+      <c r="S3" s="42"/>
       <c r="T3" s="9">
         <v>2</v>
       </c>
@@ -1258,7 +1267,7 @@
       <c r="I4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="46"/>
+      <c r="S4" s="42"/>
       <c r="T4" s="9">
         <v>3</v>
       </c>
@@ -1297,16 +1306,16 @@
       <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="44"/>
+      <c r="S5" s="43"/>
       <c r="T5" s="9">
         <v>4</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="13"/>
-      <c r="X5" s="47" t="s">
+      <c r="X5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Y5" s="48"/>
+      <c r="Y5" s="40"/>
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="16"/>
-      <c r="S6" s="49" t="s">
+      <c r="S6" s="41" t="s">
         <v>36</v>
       </c>
       <c r="T6" s="9">
@@ -1379,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="16"/>
-      <c r="S7" s="46"/>
+      <c r="S7" s="42"/>
       <c r="T7" s="9">
         <v>2</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="16"/>
-      <c r="S8" s="46"/>
+      <c r="S8" s="42"/>
       <c r="T8" s="9">
         <v>3</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="16"/>
-      <c r="S9" s="44"/>
+      <c r="S9" s="43"/>
       <c r="T9" s="9">
         <v>4</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="S10" s="49" t="s">
+      <c r="S10" s="41" t="s">
         <v>44</v>
       </c>
       <c r="T10" s="9">
@@ -1530,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="16"/>
-      <c r="S11" s="46"/>
+      <c r="S11" s="42"/>
       <c r="T11" s="9">
         <v>2</v>
       </c>
@@ -1564,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="S12" s="46"/>
+      <c r="S12" s="42"/>
       <c r="T12" s="9">
         <v>3</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="S13" s="44"/>
+      <c r="S13" s="43"/>
       <c r="T13" s="9">
         <v>4</v>
       </c>
@@ -1634,7 +1643,7 @@
       <c r="I14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="S14" s="41" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="9">
@@ -1672,7 +1681,7 @@
       <c r="I15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S15" s="46"/>
+      <c r="S15" s="42"/>
       <c r="T15" s="9">
         <v>2</v>
       </c>
@@ -1706,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="S16" s="46"/>
+      <c r="S16" s="42"/>
       <c r="T16" s="9">
         <v>3</v>
       </c>
@@ -1742,7 +1751,7 @@
       <c r="I17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="44"/>
+      <c r="S17" s="43"/>
       <c r="T17" s="9">
         <v>4</v>
       </c>
@@ -2518,7 +2527,7 @@
       <c r="A44" s="5">
         <v>45371</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="38">
         <v>0.5</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -2552,7 +2561,7 @@
       <c r="A45" s="5">
         <v>45372</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="38">
         <v>0.5</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -2585,7 +2594,7 @@
       <c r="A46" s="5">
         <v>45373</v>
       </c>
-      <c r="B46" s="40">
+      <c r="B46" s="38">
         <v>0.5</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -2615,7 +2624,7 @@
       <c r="A47" s="5">
         <v>45371</v>
       </c>
-      <c r="B47" s="40">
+      <c r="B47" s="38">
         <v>0.5</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -2645,7 +2654,7 @@
       <c r="A48" s="5">
         <v>45371</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="38">
         <v>0.58333333333333337</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -2675,7 +2684,7 @@
       <c r="A49" s="5">
         <v>45371</v>
       </c>
-      <c r="B49" s="40">
+      <c r="B49" s="38">
         <v>0.58333333333333337</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -2707,7 +2716,7 @@
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D50" s="7">
         <v>50500</v>
@@ -2735,7 +2744,7 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D51" s="7">
         <v>12750</v>
@@ -5658,6 +5667,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="S6:S9"/>
     <mergeCell ref="S10:S13"/>
@@ -5665,11 +5679,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="S2:S5"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="M3">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5712,40 +5721,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
@@ -5756,19 +5765,19 @@
         <f>136500</f>
         <v>136500</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53">
+      <c r="A4" s="51">
         <f>B3+A3</f>
         <v>190500</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="29">
         <v>0</v>
       </c>
@@ -6841,14 +6850,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -7914,7 +7923,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7937,53 +7946,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="63" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45357</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="59">
         <v>51000</v>
       </c>
-      <c r="D2" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="7">
-        <f t="shared" ref="E2:E26" si="0">$C$2:$C$26-$D$2:$D$26</f>
-        <v>50000</v>
-      </c>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="56"/>
+      <c r="F2" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="7">
-        <f t="shared" ref="G2:G3" si="1">SUMIF($B$2:$B$26,F2,$E$2:$E$26)</f>
-        <v>270000</v>
+      <c r="G2" s="66">
+        <f>SUMIF($B$2:$B$26,F2,$C$2:$C$26)</f>
+        <v>273000</v>
       </c>
       <c r="H2" s="7">
-        <f t="shared" ref="H2:H3" si="2">(G2/(SUM($G$2:$G$3)))*100</f>
-        <v>84.375</v>
+        <f t="shared" ref="H2:H3" si="0">(G2/(SUM($G$2:$G$3)))*100</f>
+        <v>84.259259259259252</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>37</v>
@@ -7996,29 +7995,23 @@
       <c r="A3" s="5">
         <v>45361</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="59">
         <v>51000</v>
       </c>
-      <c r="D3" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" si="0"/>
-        <v>50000</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="56"/>
+      <c r="F3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" si="1"/>
-        <v>50000</v>
+      <c r="G3" s="67">
+        <f>SUMIF($B$2:$B$26,F3,$C$2:$C$26)</f>
+        <v>51000</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="2"/>
-        <v>15.625</v>
+        <f t="shared" si="0"/>
+        <v>15.74074074074074</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>39</v>
@@ -8031,25 +8024,19 @@
       <c r="A4" s="5">
         <v>45362</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="59">
         <v>171000</v>
       </c>
-      <c r="D4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>170000</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="D4" s="56"/>
+      <c r="F4" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="67">
         <f>G2+G3</f>
-        <v>320000</v>
+        <v>324000</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>42</v>
@@ -8062,255 +8049,168 @@
       <c r="A5" s="5">
         <v>45362</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="59">
         <v>51000</v>
       </c>
-      <c r="D5" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>50000</v>
-      </c>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="56"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="42"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="56"/>
+      <c r="F7" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="56"/>
       <c r="F8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <f>(transaksi!$K$3)*(H2/100)</f>
-        <v>71583.75</v>
+        <v>71485.555555555547</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="56"/>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="37">
         <f>(transaksi!$K$3)*(H3/100)</f>
-        <v>13256.25</v>
+        <v>13354.444444444445</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="57"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="56"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="57"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="56"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="57"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="56"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="57"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="56"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="57"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="56"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="57"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="56"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="57"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="56"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="57"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="56"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="57"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="56"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="57"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="56"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="56"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="58"/>
+      <c r="C27" s="60"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
